--- a/natmiOut/OldD0/LR-pairs_lrc2p/Ncam1-Robo1.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Ncam1-Robo1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,55 +525,55 @@
         <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.573984787646013</v>
+        <v>0.7004376666666666</v>
       </c>
       <c r="H2">
-        <v>0.573984787646013</v>
+        <v>2.101313</v>
       </c>
       <c r="I2">
-        <v>0.03753529948626558</v>
+        <v>0.04511966030063898</v>
       </c>
       <c r="J2">
-        <v>0.03753529948626558</v>
+        <v>0.04511966030063898</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>16.6901170180178</v>
+        <v>0.1757713333333334</v>
       </c>
       <c r="N2">
-        <v>16.6901170180178</v>
+        <v>0.5273140000000001</v>
       </c>
       <c r="O2">
-        <v>0.9215375091053061</v>
+        <v>0.009444264308298454</v>
       </c>
       <c r="P2">
-        <v>0.9215375091053061</v>
+        <v>0.009444264308298454</v>
       </c>
       <c r="Q2">
-        <v>9.579873272374055</v>
+        <v>0.1231168625868889</v>
       </c>
       <c r="R2">
-        <v>9.579873272374055</v>
+        <v>1.108051763282</v>
       </c>
       <c r="S2">
-        <v>0.03459018639209486</v>
+        <v>0.0004261219973798754</v>
       </c>
       <c r="T2">
-        <v>0.03459018639209486</v>
+        <v>0.0004261219973798754</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,60 +587,60 @@
         <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.573984787646013</v>
+        <v>0.7004376666666666</v>
       </c>
       <c r="H3">
-        <v>0.573984787646013</v>
+        <v>2.101313</v>
       </c>
       <c r="I3">
-        <v>0.03753529948626558</v>
+        <v>0.04511966030063898</v>
       </c>
       <c r="J3">
-        <v>0.03753529948626558</v>
+        <v>0.04511966030063898</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>1.42104704541978</v>
+        <v>16.98312366666667</v>
       </c>
       <c r="N3">
-        <v>1.42104704541978</v>
+        <v>50.949371</v>
       </c>
       <c r="O3">
-        <v>0.07846249089469398</v>
+        <v>0.9125100529581165</v>
       </c>
       <c r="P3">
-        <v>0.07846249089469398</v>
+        <v>0.9125100529581165</v>
       </c>
       <c r="Q3">
-        <v>0.8156593866002667</v>
+        <v>11.89561951379144</v>
       </c>
       <c r="R3">
-        <v>0.8156593866002667</v>
+        <v>107.060575624123</v>
       </c>
       <c r="S3">
-        <v>0.002945113094170725</v>
+        <v>0.0411721436103883</v>
       </c>
       <c r="T3">
-        <v>0.002945113094170725</v>
+        <v>0.0411721436103883</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.208459423026426</v>
+        <v>0.7004376666666666</v>
       </c>
       <c r="H4">
-        <v>0.208459423026426</v>
+        <v>2.101313</v>
       </c>
       <c r="I4">
-        <v>0.0136320457308994</v>
+        <v>0.04511966030063898</v>
       </c>
       <c r="J4">
-        <v>0.0136320457308994</v>
+        <v>0.04511966030063898</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.6901170180178</v>
+        <v>1.452542333333333</v>
       </c>
       <c r="N4">
-        <v>16.6901170180178</v>
+        <v>4.357627</v>
       </c>
       <c r="O4">
-        <v>0.9215375091053061</v>
+        <v>0.07804568273358503</v>
       </c>
       <c r="P4">
-        <v>0.9215375091053061</v>
+        <v>0.07804568273358505</v>
       </c>
       <c r="Q4">
-        <v>3.479212163819525</v>
+        <v>1.017415362694555</v>
       </c>
       <c r="R4">
-        <v>3.479212163819525</v>
+        <v>9.156738264250999</v>
       </c>
       <c r="S4">
-        <v>0.01256244146686265</v>
+        <v>0.003521394692870802</v>
       </c>
       <c r="T4">
-        <v>0.01256244146686265</v>
+        <v>0.003521394692870802</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,60 +711,60 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.208459423026426</v>
+        <v>0.237305</v>
       </c>
       <c r="H5">
-        <v>0.208459423026426</v>
+        <v>0.711915</v>
       </c>
       <c r="I5">
-        <v>0.0136320457308994</v>
+        <v>0.01528632952964618</v>
       </c>
       <c r="J5">
-        <v>0.0136320457308994</v>
+        <v>0.01528632952964618</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>1.42104704541978</v>
+        <v>0.1757713333333334</v>
       </c>
       <c r="N5">
-        <v>1.42104704541978</v>
+        <v>0.5273140000000001</v>
       </c>
       <c r="O5">
-        <v>0.07846249089469398</v>
+        <v>0.009444264308298454</v>
       </c>
       <c r="P5">
-        <v>0.07846249089469398</v>
+        <v>0.009444264308298454</v>
       </c>
       <c r="Q5">
-        <v>0.2962306471816147</v>
+        <v>0.04171141625666667</v>
       </c>
       <c r="R5">
-        <v>0.2962306471816147</v>
+        <v>0.37540274631</v>
       </c>
       <c r="S5">
-        <v>0.001069604264036746</v>
+        <v>0.0001443681363817261</v>
       </c>
       <c r="T5">
-        <v>0.001069604264036746</v>
+        <v>0.0001443681363817261</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -776,57 +776,57 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.5094222590766</v>
+        <v>0.237305</v>
       </c>
       <c r="H6">
-        <v>14.5094222590766</v>
+        <v>0.711915</v>
       </c>
       <c r="I6">
-        <v>0.948832654782835</v>
+        <v>0.01528632952964618</v>
       </c>
       <c r="J6">
-        <v>0.948832654782835</v>
+        <v>0.01528632952964618</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>16.6901170180178</v>
+        <v>16.98312366666667</v>
       </c>
       <c r="N6">
-        <v>16.6901170180178</v>
+        <v>50.949371</v>
       </c>
       <c r="O6">
-        <v>0.9215375091053061</v>
+        <v>0.9125100529581165</v>
       </c>
       <c r="P6">
-        <v>0.9215375091053061</v>
+        <v>0.9125100529581165</v>
       </c>
       <c r="Q6">
-        <v>242.1639553678207</v>
+        <v>4.030180161718333</v>
       </c>
       <c r="R6">
-        <v>242.1639553678207</v>
+        <v>36.271621455465</v>
       </c>
       <c r="S6">
-        <v>0.8743848812463485</v>
+        <v>0.01394892936863265</v>
       </c>
       <c r="T6">
-        <v>0.8743848812463485</v>
+        <v>0.01394892936863265</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -838,52 +838,238 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>14.5094222590766</v>
+        <v>0.237305</v>
       </c>
       <c r="H7">
-        <v>14.5094222590766</v>
+        <v>0.711915</v>
       </c>
       <c r="I7">
-        <v>0.948832654782835</v>
+        <v>0.01528632952964618</v>
       </c>
       <c r="J7">
-        <v>0.948832654782835</v>
+        <v>0.01528632952964618</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.42104704541978</v>
+        <v>1.452542333333333</v>
       </c>
       <c r="N7">
-        <v>1.42104704541978</v>
+        <v>4.357627</v>
       </c>
       <c r="O7">
-        <v>0.07846249089469398</v>
+        <v>0.07804568273358503</v>
       </c>
       <c r="P7">
-        <v>0.07846249089469398</v>
+        <v>0.07804568273358505</v>
       </c>
       <c r="Q7">
-        <v>20.61857163200879</v>
+        <v>0.3446955584116667</v>
       </c>
       <c r="R7">
-        <v>20.61857163200879</v>
+        <v>3.102260025705</v>
       </c>
       <c r="S7">
-        <v>0.0744477735364865</v>
+        <v>0.001193032024631798</v>
       </c>
       <c r="T7">
-        <v>0.0744477735364865</v>
+        <v>0.001193032024631798</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>14.58625866666667</v>
+      </c>
+      <c r="H8">
+        <v>43.758776</v>
+      </c>
+      <c r="I8">
+        <v>0.9395940101697148</v>
+      </c>
+      <c r="J8">
+        <v>0.9395940101697148</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.1757713333333334</v>
+      </c>
+      <c r="N8">
+        <v>0.5273140000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.009444264308298454</v>
+      </c>
+      <c r="P8">
+        <v>0.009444264308298454</v>
+      </c>
+      <c r="Q8">
+        <v>2.563846134184889</v>
+      </c>
+      <c r="R8">
+        <v>23.074615207664</v>
+      </c>
+      <c r="S8">
+        <v>0.008873774174536851</v>
+      </c>
+      <c r="T8">
+        <v>0.008873774174536851</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9">
+        <v>14.58625866666667</v>
+      </c>
+      <c r="H9">
+        <v>43.758776</v>
+      </c>
+      <c r="I9">
+        <v>0.9395940101697148</v>
+      </c>
+      <c r="J9">
+        <v>0.9395940101697148</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>16.98312366666667</v>
+      </c>
+      <c r="N9">
+        <v>50.949371</v>
+      </c>
+      <c r="O9">
+        <v>0.9125100529581165</v>
+      </c>
+      <c r="P9">
+        <v>0.9125100529581165</v>
+      </c>
+      <c r="Q9">
+        <v>247.7202347699885</v>
+      </c>
+      <c r="R9">
+        <v>2229.482112929896</v>
+      </c>
+      <c r="S9">
+        <v>0.8573889799790955</v>
+      </c>
+      <c r="T9">
+        <v>0.8573889799790955</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>3</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>14.58625866666667</v>
+      </c>
+      <c r="H10">
+        <v>43.758776</v>
+      </c>
+      <c r="I10">
+        <v>0.9395940101697148</v>
+      </c>
+      <c r="J10">
+        <v>0.9395940101697148</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.452542333333333</v>
+      </c>
+      <c r="N10">
+        <v>4.357627</v>
+      </c>
+      <c r="O10">
+        <v>0.07804568273358503</v>
+      </c>
+      <c r="P10">
+        <v>0.07804568273358505</v>
+      </c>
+      <c r="Q10">
+        <v>21.18715819828356</v>
+      </c>
+      <c r="R10">
+        <v>190.684423784552</v>
+      </c>
+      <c r="S10">
+        <v>0.07333125601608242</v>
+      </c>
+      <c r="T10">
+        <v>0.07333125601608244</v>
       </c>
     </row>
   </sheetData>
